--- a/biology/Botanique/Leptochloa_virgata/Leptochloa_virgata.xlsx
+++ b/biology/Botanique/Leptochloa_virgata/Leptochloa_virgata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptochloa virgata est une espèce de plantes monocotylédones de la famille des Poaceae, originaire des régions tropicales d'Amérique.
 C'est une plante herbacée vivace, au port dressé, pouvant atteindre environ 1 à 2 m de haut.
 Cette plante, à l'instar d'autres espèces du même genre, est une mauvaise herbe des cultures, notamment dans les rizières.
-Une population de Leptochloa virgata a été signalée en 2010, au Mexique, comme résistante au glyphosate, herbicide du groupe G/9 (inhibiteurs de l'EPSP synthase)[2].
+Une population de Leptochloa virgata a été signalée en 2010, au Mexique, comme résistante au glyphosate, herbicide du groupe G/9 (inhibiteurs de l'EPSP synthase).
 </t>
         </is>
       </c>
@@ -514,15 +526,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptochloa virgata est une plante herbacée vivace, aux chaumes dressés, parfois genouillés à la base, pouvant atteindre de 1 à 2 m de haut. Ces tiges aux entrenœuds pleins sont comprimées latéralement et ramifiées.
-Les feuilles, à la gaine glabre ou scabreuse, parfois légèrement pileuse à la base, ont une ligule membraneuse, tronquée, haute de 0,3 à 1 mm, et un limbe effilé de 5 à 45 cm de long sur 4 à 10 mm de large, glabre ou légèrement pileux adaxialement (sur la face tournée vers la tige)[3].
+Les feuilles, à la gaine glabre ou scabreuse, parfois légèrement pileuse à la base, ont une ligule membraneuse, tronquée, haute de 0,3 à 1 mm, et un limbe effilé de 5 à 45 cm de long sur 4 à 10 mm de large, glabre ou légèrement pileux adaxialement (sur la face tournée vers la tige).
 L'inflorescence est une panicule de 5 à 60 cm de long, avec généralement de 9 à 25 branches racémeuses (rarement subdigitées).
 Les épillets, de 2,5 à 4 mm de long, imbriqués à distants, regroupent chacun de 3 à 6, voire 8, fleurs.
-Les glumes inférieures, de 1,7 à 2,9 mm de long, sont lancéolées, aiguës, les glumes supérieures de 1,7 à 3,8 mm, sont lancéolées à ovales, aiguës, acuminées, rarement mucronées[3].
+Les glumes inférieures, de 1,7 à 2,9 mm de long, sont lancéolées, aiguës, les glumes supérieures de 1,7 à 3,8 mm, sont lancéolées à ovales, aiguës, acuminées, rarement mucronées.
 Les fruits sont des caryopses de 1 à 1,8 mm de long sur environ 0,5 mm de large, étroitement elliptiques à ovales, légèrement comprimés latéralement.
-Le nombre chromosomique est égal à 2n = 40[3].
+Le nombre chromosomique est égal à 2n = 40.
 </t>
         </is>
       </c>
@@ -551,10 +565,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle de Leptochloa virgata s'étend la plupart des régions tropicales et subtropicales d'Amérique du Nord : sud de États-Unis (Texas, Floride) et Mexique (San Luis Potosi, Tamaulipas, Veracruz), d'Amérique du Sud : nord de l'Argentine, Brésil, Paraguay, Bolivie, Équateur, Pérou et d'Amérique centrale: Belize, Costa Rica, El Salvador, Guatemala, Honduras, Nicaragua, Panama, et des Antilles : Antigua-et-Barbuda, Bahamas, Cuba, Grenade, Guadeloupe, Marie-Galante, Hispaniola, Jamaïque, Martinique, Montserrat, Antilles néerlandaises, Saba, Saint-Eustache, Porto Rico, Saint-Christophe-et-Niévès, Sainte Lucie, Saint-Vincent-et-Grenadines.
-L'espèce est naturalisée en Asie du Sud-est, notamment en Papouasie-Nouvelle-Guinée[4].
+L'espèce est naturalisée en Asie du Sud-est, notamment en Papouasie-Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -585,8 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (29 février 2016)[5] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 février 2016) :
 Bromus capillaris Moench
 Chloris digitaria Kunth
 Chloris gracilis Kunth, nom. illeg.
@@ -627,8 +648,43 @@
 Oxydenia virgata Nutt. ex B.D.Jacks., pro syn.
 Poa dactyloides Aubl., nom. superfl.
 Rabdochloa domingensis (Jacq.) P.Beauv.
-Liste des variétés
-Selon Tropicos                                           (29 février 2016)[6] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leptochloa_virgata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leptochloa_virgata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (29 février 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Leptochloa virgata var. aristata E. Fourn.
 variété Leptochloa virgata var. domingensis (Jacq.) Link ex Griseb.
 variété Leptochloa virgata var. gracilis (Nees) Link
